--- a/excel/finished/8高炉/高炉冷却壁温度月报表.xlsx
+++ b/excel/finished/8高炉/高炉冷却壁温度月报表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\template\8高炉\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\pro\steel\excel\finished\8高炉\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,8 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="冷却壁温度" sheetId="1" r:id="rId1"/>
-    <sheet name="_tag_month_all" sheetId="2" r:id="rId2"/>
-    <sheet name="_dictionary" sheetId="3" r:id="rId3"/>
+    <sheet name="_tag_month_all" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="_dictionary" sheetId="3" state="hidden" r:id="rId3"/>
     <sheet name="_metadata" sheetId="4" state="hidden" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
@@ -843,6 +843,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -850,15 +859,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1173,36 +1173,36 @@
   <dimension ref="A1:HS37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:227" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="16"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="13"/>
       <c r="W1" s="9"/>
       <c r="X1" s="9"/>
       <c r="Y1" s="9"/>
@@ -1282,242 +1282,242 @@
       <c r="CU1" s="9"/>
     </row>
     <row r="2" spans="1:227" x14ac:dyDescent="0.15">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="14">
         <v>37.85</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11">
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14">
         <v>37.195</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11">
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14">
         <v>36.344999999999999</v>
       </c>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11">
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14">
         <v>35.234999999999999</v>
       </c>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11">
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14">
         <v>34.384999999999998</v>
       </c>
-      <c r="AA2" s="11"/>
-      <c r="AB2" s="11"/>
-      <c r="AC2" s="11"/>
-      <c r="AD2" s="11"/>
-      <c r="AE2" s="11"/>
-      <c r="AF2" s="11">
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="14"/>
+      <c r="AC2" s="14"/>
+      <c r="AD2" s="14"/>
+      <c r="AE2" s="14"/>
+      <c r="AF2" s="14">
         <v>33.274999999999999</v>
       </c>
-      <c r="AG2" s="11"/>
-      <c r="AH2" s="11"/>
-      <c r="AI2" s="11"/>
-      <c r="AJ2" s="11"/>
-      <c r="AK2" s="11"/>
-      <c r="AL2" s="11">
+      <c r="AG2" s="14"/>
+      <c r="AH2" s="14"/>
+      <c r="AI2" s="14"/>
+      <c r="AJ2" s="14"/>
+      <c r="AK2" s="14"/>
+      <c r="AL2" s="14">
         <v>32.424999999999997</v>
       </c>
-      <c r="AM2" s="11"/>
-      <c r="AN2" s="11"/>
-      <c r="AO2" s="11"/>
-      <c r="AP2" s="11"/>
-      <c r="AQ2" s="11"/>
-      <c r="AR2" s="11">
+      <c r="AM2" s="14"/>
+      <c r="AN2" s="14"/>
+      <c r="AO2" s="14"/>
+      <c r="AP2" s="14"/>
+      <c r="AQ2" s="14"/>
+      <c r="AR2" s="14">
         <v>31.315000000000001</v>
       </c>
-      <c r="AS2" s="11"/>
-      <c r="AT2" s="11"/>
-      <c r="AU2" s="11"/>
-      <c r="AV2" s="11"/>
-      <c r="AW2" s="11"/>
-      <c r="AX2" s="11">
+      <c r="AS2" s="14"/>
+      <c r="AT2" s="14"/>
+      <c r="AU2" s="14"/>
+      <c r="AV2" s="14"/>
+      <c r="AW2" s="14"/>
+      <c r="AX2" s="14">
         <v>30.465</v>
       </c>
-      <c r="AY2" s="11"/>
-      <c r="AZ2" s="11"/>
-      <c r="BA2" s="11"/>
-      <c r="BB2" s="11"/>
-      <c r="BC2" s="11"/>
-      <c r="BD2" s="11">
+      <c r="AY2" s="14"/>
+      <c r="AZ2" s="14"/>
+      <c r="BA2" s="14"/>
+      <c r="BB2" s="14"/>
+      <c r="BC2" s="14"/>
+      <c r="BD2" s="14">
         <v>29.355</v>
       </c>
-      <c r="BE2" s="11"/>
-      <c r="BF2" s="11"/>
-      <c r="BG2" s="11"/>
-      <c r="BH2" s="11"/>
-      <c r="BI2" s="11"/>
-      <c r="BJ2" s="11">
+      <c r="BE2" s="14"/>
+      <c r="BF2" s="14"/>
+      <c r="BG2" s="14"/>
+      <c r="BH2" s="14"/>
+      <c r="BI2" s="14"/>
+      <c r="BJ2" s="14">
         <v>28.504999999999999</v>
       </c>
-      <c r="BK2" s="11"/>
-      <c r="BL2" s="11"/>
-      <c r="BM2" s="11"/>
-      <c r="BN2" s="11"/>
-      <c r="BO2" s="11"/>
-      <c r="BP2" s="11">
+      <c r="BK2" s="14"/>
+      <c r="BL2" s="14"/>
+      <c r="BM2" s="14"/>
+      <c r="BN2" s="14"/>
+      <c r="BO2" s="14"/>
+      <c r="BP2" s="14">
         <v>27.395</v>
       </c>
-      <c r="BQ2" s="11"/>
-      <c r="BR2" s="11"/>
-      <c r="BS2" s="11"/>
-      <c r="BT2" s="11"/>
-      <c r="BU2" s="11"/>
-      <c r="BV2" s="11">
+      <c r="BQ2" s="14"/>
+      <c r="BR2" s="14"/>
+      <c r="BS2" s="14"/>
+      <c r="BT2" s="14"/>
+      <c r="BU2" s="14"/>
+      <c r="BV2" s="14">
         <v>26.545000000000002</v>
       </c>
-      <c r="BW2" s="11"/>
-      <c r="BX2" s="11"/>
-      <c r="BY2" s="11"/>
-      <c r="BZ2" s="11"/>
-      <c r="CA2" s="11"/>
-      <c r="CB2" s="11">
+      <c r="BW2" s="14"/>
+      <c r="BX2" s="14"/>
+      <c r="BY2" s="14"/>
+      <c r="BZ2" s="14"/>
+      <c r="CA2" s="14"/>
+      <c r="CB2" s="14">
         <v>25.48</v>
       </c>
-      <c r="CC2" s="11"/>
-      <c r="CD2" s="11"/>
-      <c r="CE2" s="11"/>
-      <c r="CF2" s="11"/>
-      <c r="CG2" s="11"/>
-      <c r="CH2" s="11">
+      <c r="CC2" s="14"/>
+      <c r="CD2" s="14"/>
+      <c r="CE2" s="14"/>
+      <c r="CF2" s="14"/>
+      <c r="CG2" s="14"/>
+      <c r="CH2" s="14">
         <v>24.66</v>
       </c>
-      <c r="CI2" s="11"/>
-      <c r="CJ2" s="11"/>
-      <c r="CK2" s="11"/>
-      <c r="CL2" s="11"/>
-      <c r="CM2" s="11"/>
-      <c r="CN2" s="11">
+      <c r="CI2" s="14"/>
+      <c r="CJ2" s="14"/>
+      <c r="CK2" s="14"/>
+      <c r="CL2" s="14"/>
+      <c r="CM2" s="14"/>
+      <c r="CN2" s="14">
         <v>23.49</v>
       </c>
-      <c r="CO2" s="11"/>
-      <c r="CP2" s="11"/>
-      <c r="CQ2" s="11"/>
-      <c r="CR2" s="11"/>
-      <c r="CS2" s="11"/>
-      <c r="CT2" s="11">
+      <c r="CO2" s="14"/>
+      <c r="CP2" s="14"/>
+      <c r="CQ2" s="14"/>
+      <c r="CR2" s="14"/>
+      <c r="CS2" s="14"/>
+      <c r="CT2" s="14">
         <v>22.67</v>
       </c>
-      <c r="CU2" s="11"/>
-      <c r="CV2" s="11"/>
-      <c r="CW2" s="11"/>
-      <c r="CX2" s="11"/>
-      <c r="CY2" s="11"/>
-      <c r="CZ2" s="11">
+      <c r="CU2" s="14"/>
+      <c r="CV2" s="14"/>
+      <c r="CW2" s="14"/>
+      <c r="CX2" s="14"/>
+      <c r="CY2" s="14"/>
+      <c r="CZ2" s="14">
         <v>21.5</v>
       </c>
-      <c r="DA2" s="11"/>
-      <c r="DB2" s="11"/>
-      <c r="DC2" s="11"/>
-      <c r="DD2" s="11"/>
-      <c r="DE2" s="11"/>
-      <c r="DF2" s="11">
+      <c r="DA2" s="14"/>
+      <c r="DB2" s="14"/>
+      <c r="DC2" s="14"/>
+      <c r="DD2" s="14"/>
+      <c r="DE2" s="14"/>
+      <c r="DF2" s="14">
         <v>20.68</v>
       </c>
-      <c r="DG2" s="11"/>
-      <c r="DH2" s="11"/>
-      <c r="DI2" s="11"/>
-      <c r="DJ2" s="11"/>
-      <c r="DK2" s="11"/>
-      <c r="DL2" s="11">
+      <c r="DG2" s="14"/>
+      <c r="DH2" s="14"/>
+      <c r="DI2" s="14"/>
+      <c r="DJ2" s="14"/>
+      <c r="DK2" s="14"/>
+      <c r="DL2" s="14">
         <v>19.625</v>
       </c>
-      <c r="DM2" s="11"/>
-      <c r="DN2" s="11"/>
-      <c r="DO2" s="11"/>
-      <c r="DP2" s="11"/>
-      <c r="DQ2" s="11"/>
-      <c r="DR2" s="11">
+      <c r="DM2" s="14"/>
+      <c r="DN2" s="14"/>
+      <c r="DO2" s="14"/>
+      <c r="DP2" s="14"/>
+      <c r="DQ2" s="14"/>
+      <c r="DR2" s="14">
         <v>18.754999999999999</v>
       </c>
-      <c r="DS2" s="11"/>
-      <c r="DT2" s="11"/>
-      <c r="DU2" s="11"/>
-      <c r="DV2" s="11"/>
-      <c r="DW2" s="11"/>
-      <c r="DX2" s="11">
+      <c r="DS2" s="14"/>
+      <c r="DT2" s="14"/>
+      <c r="DU2" s="14"/>
+      <c r="DV2" s="14"/>
+      <c r="DW2" s="14"/>
+      <c r="DX2" s="14">
         <v>17.7</v>
       </c>
-      <c r="DY2" s="11"/>
-      <c r="DZ2" s="11"/>
-      <c r="EA2" s="11"/>
-      <c r="EB2" s="11"/>
-      <c r="EC2" s="11"/>
-      <c r="ED2" s="11">
+      <c r="DY2" s="14"/>
+      <c r="DZ2" s="14"/>
+      <c r="EA2" s="14"/>
+      <c r="EB2" s="14"/>
+      <c r="EC2" s="14"/>
+      <c r="ED2" s="14">
         <v>17.02</v>
       </c>
-      <c r="EE2" s="11"/>
-      <c r="EF2" s="11"/>
-      <c r="EG2" s="11"/>
-      <c r="EH2" s="11"/>
-      <c r="EI2" s="11"/>
-      <c r="EJ2" s="11">
+      <c r="EE2" s="14"/>
+      <c r="EF2" s="14"/>
+      <c r="EG2" s="14"/>
+      <c r="EH2" s="14"/>
+      <c r="EI2" s="14"/>
+      <c r="EJ2" s="14">
         <v>16.14</v>
       </c>
-      <c r="EK2" s="11"/>
-      <c r="EL2" s="11"/>
-      <c r="EM2" s="11"/>
-      <c r="EN2" s="11"/>
-      <c r="EO2" s="11"/>
-      <c r="EP2" s="11">
+      <c r="EK2" s="14"/>
+      <c r="EL2" s="14"/>
+      <c r="EM2" s="14"/>
+      <c r="EN2" s="14"/>
+      <c r="EO2" s="14"/>
+      <c r="EP2" s="14">
         <v>15.46</v>
       </c>
-      <c r="EQ2" s="11"/>
-      <c r="ER2" s="11"/>
-      <c r="ES2" s="11"/>
-      <c r="ET2" s="11"/>
-      <c r="EU2" s="11"/>
-      <c r="EV2" s="11">
+      <c r="EQ2" s="14"/>
+      <c r="ER2" s="14"/>
+      <c r="ES2" s="14"/>
+      <c r="ET2" s="14"/>
+      <c r="EU2" s="14"/>
+      <c r="EV2" s="14">
         <v>11.82</v>
       </c>
-      <c r="EW2" s="11"/>
-      <c r="EX2" s="11"/>
-      <c r="EY2" s="11"/>
-      <c r="EZ2" s="11">
+      <c r="EW2" s="14"/>
+      <c r="EX2" s="14"/>
+      <c r="EY2" s="14"/>
+      <c r="EZ2" s="14">
         <v>10.039999999999999</v>
       </c>
-      <c r="FA2" s="11"/>
-      <c r="FB2" s="11"/>
-      <c r="FC2" s="11"/>
-      <c r="FD2" s="11">
+      <c r="FA2" s="14"/>
+      <c r="FB2" s="14"/>
+      <c r="FC2" s="14"/>
+      <c r="FD2" s="14">
         <v>8.26</v>
       </c>
-      <c r="FE2" s="11"/>
-      <c r="FF2" s="11"/>
-      <c r="FG2" s="11"/>
-      <c r="FH2" s="11">
+      <c r="FE2" s="14"/>
+      <c r="FF2" s="14"/>
+      <c r="FG2" s="14"/>
+      <c r="FH2" s="14">
         <v>6.48</v>
       </c>
-      <c r="FI2" s="11"/>
-      <c r="FJ2" s="11"/>
-      <c r="FK2" s="11"/>
-      <c r="FL2" s="11">
+      <c r="FI2" s="14"/>
+      <c r="FJ2" s="14"/>
+      <c r="FK2" s="14"/>
+      <c r="FL2" s="14">
         <v>4.95</v>
       </c>
-      <c r="FM2" s="11"/>
-      <c r="FN2" s="11"/>
-      <c r="FO2" s="11"/>
+      <c r="FM2" s="14"/>
+      <c r="FN2" s="14"/>
+      <c r="FO2" s="14"/>
     </row>
     <row r="3" spans="1:227" x14ac:dyDescent="0.15">
-      <c r="A3" s="13"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="3" t="s">
         <v>25</v>
       </c>
@@ -2030,7 +2030,7 @@
       </c>
     </row>
     <row r="4" spans="1:227" x14ac:dyDescent="0.15">
-      <c r="A4" s="13"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
@@ -2542,7 +2542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:227" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:227" ht="0.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -30355,22 +30355,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A1:V1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="N2:S2"/>
-    <mergeCell ref="T2:Y2"/>
-    <mergeCell ref="Z2:AE2"/>
-    <mergeCell ref="AF2:AK2"/>
-    <mergeCell ref="AL2:AQ2"/>
-    <mergeCell ref="AR2:AW2"/>
-    <mergeCell ref="AX2:BC2"/>
-    <mergeCell ref="DF2:DK2"/>
-    <mergeCell ref="BD2:BI2"/>
-    <mergeCell ref="BJ2:BO2"/>
-    <mergeCell ref="BP2:BU2"/>
-    <mergeCell ref="BV2:CA2"/>
-    <mergeCell ref="CB2:CG2"/>
     <mergeCell ref="FL2:FO2"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="EP2:EU2"/>
@@ -30387,6 +30371,22 @@
     <mergeCell ref="CN2:CS2"/>
     <mergeCell ref="CT2:CY2"/>
     <mergeCell ref="CZ2:DE2"/>
+    <mergeCell ref="DF2:DK2"/>
+    <mergeCell ref="BD2:BI2"/>
+    <mergeCell ref="BJ2:BO2"/>
+    <mergeCell ref="BP2:BU2"/>
+    <mergeCell ref="BV2:CA2"/>
+    <mergeCell ref="CB2:CG2"/>
+    <mergeCell ref="Z2:AE2"/>
+    <mergeCell ref="AF2:AK2"/>
+    <mergeCell ref="AL2:AQ2"/>
+    <mergeCell ref="AR2:AW2"/>
+    <mergeCell ref="AX2:BC2"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="N2:S2"/>
+    <mergeCell ref="T2:Y2"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel/finished/8高炉/高炉冷却壁温度月报表.xlsx
+++ b/excel/finished/8高炉/高炉冷却壁温度月报表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\pro\steel\excel\finished\8高炉\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\template\8高炉\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,8 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="冷却壁温度" sheetId="1" r:id="rId1"/>
-    <sheet name="_tag_month_all" sheetId="2" state="hidden" r:id="rId2"/>
-    <sheet name="_dictionary" sheetId="3" state="hidden" r:id="rId3"/>
+    <sheet name="_tag_month_all" sheetId="2" r:id="rId2"/>
+    <sheet name="_dictionary" sheetId="3" r:id="rId3"/>
     <sheet name="_metadata" sheetId="4" state="hidden" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
@@ -1173,7 +1173,7 @@
   <dimension ref="A1:HS37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/excel/finished/8高炉/高炉冷却壁温度月报表.xlsx
+++ b/excel/finished/8高炉/高炉冷却壁温度月报表.xlsx
@@ -15,17 +15,14 @@
     <sheet name="冷却壁温度" sheetId="1" r:id="rId1"/>
     <sheet name="_tag_month_all" sheetId="2" r:id="rId2"/>
     <sheet name="_dictionary" sheetId="3" r:id="rId3"/>
-    <sheet name="_metadata" sheetId="4" state="hidden" r:id="rId4"/>
+    <sheet name="_metadata" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="366">
-  <si>
-    <t>时间</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="346">
   <si>
     <t>℃</t>
   </si>
@@ -37,66 +34,6 @@
   </si>
   <si>
     <t>_dictionary</t>
-  </si>
-  <si>
-    <t>DateTime</t>
-  </si>
-  <si>
-    <t>TemplateName</t>
-  </si>
-  <si>
-    <t>高炉冷却壁温度 日报</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>日报表</t>
-  </si>
-  <si>
-    <t>TemplatePath</t>
-  </si>
-  <si>
-    <t>D:\template\8高炉\高炉冷却壁温度日报表.xlsx</t>
-  </si>
-  <si>
-    <t>AutoBuild</t>
-  </si>
-  <si>
-    <t>Enable</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>cn_zh</t>
-  </si>
-  <si>
-    <t>BlowingInDate</t>
-  </si>
-  <si>
-    <t>2018-12-03</t>
-  </si>
-  <si>
-    <t>Build_Type</t>
-  </si>
-  <si>
-    <t>automatic</t>
-  </si>
-  <si>
-    <t>Build_StartTime</t>
-  </si>
-  <si>
-    <t>2018-12-03 11:39:07</t>
-  </si>
-  <si>
-    <t>Build_EndTime</t>
-  </si>
-  <si>
-    <t>ExcelFile</t>
-  </si>
-  <si>
-    <t>D:\excel\cn_zh\8高炉\日报表\高炉冷却壁温度 日报_2018-12-03_11.xlsx</t>
   </si>
   <si>
     <t>BF8_L2C_BD_TE05035_6_1d_avg</t>
@@ -1121,6 +1058,10 @@
   </si>
   <si>
     <t>TE05001_1</t>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1199,7 +1140,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1326,11 +1267,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1356,12 +1308,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1369,6 +1315,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1682,8 +1637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FO37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="EH1" workbookViewId="0">
-      <selection activeCell="FR26" sqref="FR26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1693,29 +1648,32 @@
   <sheetData>
     <row r="1" spans="1:171" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="12"/>
+        <v>174</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16" t="str">
+        <f>IF(_metadata!B7="","",_metadata!B7)</f>
+        <v/>
+      </c>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="15"/>
       <c r="W1" s="6"/>
       <c r="X1" s="6"/>
       <c r="Y1" s="6"/>
@@ -1795,1779 +1753,1779 @@
       <c r="CU1" s="6"/>
     </row>
     <row r="2" spans="1:171" x14ac:dyDescent="0.15">
-      <c r="A2" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="13">
+      <c r="A2" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="B2" s="11">
         <v>37.85</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13">
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11">
         <v>37.195</v>
       </c>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13">
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11">
         <v>36.344999999999999</v>
       </c>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13">
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11">
         <v>35.234999999999999</v>
       </c>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="13">
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11">
         <v>34.384999999999998</v>
       </c>
-      <c r="AA2" s="13"/>
-      <c r="AB2" s="13"/>
-      <c r="AC2" s="13"/>
-      <c r="AD2" s="13"/>
-      <c r="AE2" s="13"/>
-      <c r="AF2" s="13">
+      <c r="AA2" s="11"/>
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="11"/>
+      <c r="AD2" s="11"/>
+      <c r="AE2" s="11"/>
+      <c r="AF2" s="11">
         <v>33.274999999999999</v>
       </c>
-      <c r="AG2" s="13"/>
-      <c r="AH2" s="13"/>
-      <c r="AI2" s="13"/>
-      <c r="AJ2" s="13"/>
-      <c r="AK2" s="13"/>
-      <c r="AL2" s="13">
+      <c r="AG2" s="11"/>
+      <c r="AH2" s="11"/>
+      <c r="AI2" s="11"/>
+      <c r="AJ2" s="11"/>
+      <c r="AK2" s="11"/>
+      <c r="AL2" s="11">
         <v>32.424999999999997</v>
       </c>
-      <c r="AM2" s="13"/>
-      <c r="AN2" s="13"/>
-      <c r="AO2" s="13"/>
-      <c r="AP2" s="13"/>
-      <c r="AQ2" s="13"/>
-      <c r="AR2" s="13">
+      <c r="AM2" s="11"/>
+      <c r="AN2" s="11"/>
+      <c r="AO2" s="11"/>
+      <c r="AP2" s="11"/>
+      <c r="AQ2" s="11"/>
+      <c r="AR2" s="11">
         <v>31.315000000000001</v>
       </c>
-      <c r="AS2" s="13"/>
-      <c r="AT2" s="13"/>
-      <c r="AU2" s="13"/>
-      <c r="AV2" s="13"/>
-      <c r="AW2" s="13"/>
-      <c r="AX2" s="13">
+      <c r="AS2" s="11"/>
+      <c r="AT2" s="11"/>
+      <c r="AU2" s="11"/>
+      <c r="AV2" s="11"/>
+      <c r="AW2" s="11"/>
+      <c r="AX2" s="11">
         <v>30.465</v>
       </c>
-      <c r="AY2" s="13"/>
-      <c r="AZ2" s="13"/>
-      <c r="BA2" s="13"/>
-      <c r="BB2" s="13"/>
-      <c r="BC2" s="13"/>
-      <c r="BD2" s="13">
+      <c r="AY2" s="11"/>
+      <c r="AZ2" s="11"/>
+      <c r="BA2" s="11"/>
+      <c r="BB2" s="11"/>
+      <c r="BC2" s="11"/>
+      <c r="BD2" s="11">
         <v>29.355</v>
       </c>
-      <c r="BE2" s="13"/>
-      <c r="BF2" s="13"/>
-      <c r="BG2" s="13"/>
-      <c r="BH2" s="13"/>
-      <c r="BI2" s="13"/>
-      <c r="BJ2" s="13">
+      <c r="BE2" s="11"/>
+      <c r="BF2" s="11"/>
+      <c r="BG2" s="11"/>
+      <c r="BH2" s="11"/>
+      <c r="BI2" s="11"/>
+      <c r="BJ2" s="11">
         <v>28.504999999999999</v>
       </c>
-      <c r="BK2" s="13"/>
-      <c r="BL2" s="13"/>
-      <c r="BM2" s="13"/>
-      <c r="BN2" s="13"/>
-      <c r="BO2" s="13"/>
-      <c r="BP2" s="13">
+      <c r="BK2" s="11"/>
+      <c r="BL2" s="11"/>
+      <c r="BM2" s="11"/>
+      <c r="BN2" s="11"/>
+      <c r="BO2" s="11"/>
+      <c r="BP2" s="11">
         <v>27.395</v>
       </c>
-      <c r="BQ2" s="13"/>
-      <c r="BR2" s="13"/>
-      <c r="BS2" s="13"/>
-      <c r="BT2" s="13"/>
-      <c r="BU2" s="13"/>
-      <c r="BV2" s="13">
+      <c r="BQ2" s="11"/>
+      <c r="BR2" s="11"/>
+      <c r="BS2" s="11"/>
+      <c r="BT2" s="11"/>
+      <c r="BU2" s="11"/>
+      <c r="BV2" s="11">
         <v>26.545000000000002</v>
       </c>
-      <c r="BW2" s="13"/>
-      <c r="BX2" s="13"/>
-      <c r="BY2" s="13"/>
-      <c r="BZ2" s="13"/>
-      <c r="CA2" s="13"/>
-      <c r="CB2" s="13">
+      <c r="BW2" s="11"/>
+      <c r="BX2" s="11"/>
+      <c r="BY2" s="11"/>
+      <c r="BZ2" s="11"/>
+      <c r="CA2" s="11"/>
+      <c r="CB2" s="11">
         <v>25.48</v>
       </c>
-      <c r="CC2" s="13"/>
-      <c r="CD2" s="13"/>
-      <c r="CE2" s="13"/>
-      <c r="CF2" s="13"/>
-      <c r="CG2" s="13"/>
-      <c r="CH2" s="13">
+      <c r="CC2" s="11"/>
+      <c r="CD2" s="11"/>
+      <c r="CE2" s="11"/>
+      <c r="CF2" s="11"/>
+      <c r="CG2" s="11"/>
+      <c r="CH2" s="11">
         <v>24.66</v>
       </c>
-      <c r="CI2" s="13"/>
-      <c r="CJ2" s="13"/>
-      <c r="CK2" s="13"/>
-      <c r="CL2" s="13"/>
-      <c r="CM2" s="13"/>
-      <c r="CN2" s="13">
+      <c r="CI2" s="11"/>
+      <c r="CJ2" s="11"/>
+      <c r="CK2" s="11"/>
+      <c r="CL2" s="11"/>
+      <c r="CM2" s="11"/>
+      <c r="CN2" s="11">
         <v>23.49</v>
       </c>
-      <c r="CO2" s="13"/>
-      <c r="CP2" s="13"/>
-      <c r="CQ2" s="13"/>
-      <c r="CR2" s="13"/>
-      <c r="CS2" s="13"/>
-      <c r="CT2" s="13">
+      <c r="CO2" s="11"/>
+      <c r="CP2" s="11"/>
+      <c r="CQ2" s="11"/>
+      <c r="CR2" s="11"/>
+      <c r="CS2" s="11"/>
+      <c r="CT2" s="11">
         <v>22.67</v>
       </c>
-      <c r="CU2" s="13"/>
-      <c r="CV2" s="13"/>
-      <c r="CW2" s="13"/>
-      <c r="CX2" s="13"/>
-      <c r="CY2" s="13"/>
-      <c r="CZ2" s="13">
+      <c r="CU2" s="11"/>
+      <c r="CV2" s="11"/>
+      <c r="CW2" s="11"/>
+      <c r="CX2" s="11"/>
+      <c r="CY2" s="11"/>
+      <c r="CZ2" s="11">
         <v>21.5</v>
       </c>
-      <c r="DA2" s="13"/>
-      <c r="DB2" s="13"/>
-      <c r="DC2" s="13"/>
-      <c r="DD2" s="13"/>
-      <c r="DE2" s="13"/>
-      <c r="DF2" s="13">
+      <c r="DA2" s="11"/>
+      <c r="DB2" s="11"/>
+      <c r="DC2" s="11"/>
+      <c r="DD2" s="11"/>
+      <c r="DE2" s="11"/>
+      <c r="DF2" s="11">
         <v>20.68</v>
       </c>
-      <c r="DG2" s="13"/>
-      <c r="DH2" s="13"/>
-      <c r="DI2" s="13"/>
-      <c r="DJ2" s="13"/>
-      <c r="DK2" s="13"/>
-      <c r="DL2" s="13">
+      <c r="DG2" s="11"/>
+      <c r="DH2" s="11"/>
+      <c r="DI2" s="11"/>
+      <c r="DJ2" s="11"/>
+      <c r="DK2" s="11"/>
+      <c r="DL2" s="11">
         <v>19.625</v>
       </c>
-      <c r="DM2" s="13"/>
-      <c r="DN2" s="13"/>
-      <c r="DO2" s="13"/>
-      <c r="DP2" s="13"/>
-      <c r="DQ2" s="13"/>
-      <c r="DR2" s="13">
+      <c r="DM2" s="11"/>
+      <c r="DN2" s="11"/>
+      <c r="DO2" s="11"/>
+      <c r="DP2" s="11"/>
+      <c r="DQ2" s="11"/>
+      <c r="DR2" s="11">
         <v>18.754999999999999</v>
       </c>
-      <c r="DS2" s="13"/>
-      <c r="DT2" s="13"/>
-      <c r="DU2" s="13"/>
-      <c r="DV2" s="13"/>
-      <c r="DW2" s="13"/>
-      <c r="DX2" s="13">
+      <c r="DS2" s="11"/>
+      <c r="DT2" s="11"/>
+      <c r="DU2" s="11"/>
+      <c r="DV2" s="11"/>
+      <c r="DW2" s="11"/>
+      <c r="DX2" s="11">
         <v>17.7</v>
       </c>
-      <c r="DY2" s="13"/>
-      <c r="DZ2" s="13"/>
-      <c r="EA2" s="13"/>
-      <c r="EB2" s="13"/>
-      <c r="EC2" s="13"/>
-      <c r="ED2" s="13">
+      <c r="DY2" s="11"/>
+      <c r="DZ2" s="11"/>
+      <c r="EA2" s="11"/>
+      <c r="EB2" s="11"/>
+      <c r="EC2" s="11"/>
+      <c r="ED2" s="11">
         <v>17.02</v>
       </c>
-      <c r="EE2" s="13"/>
-      <c r="EF2" s="13"/>
-      <c r="EG2" s="13"/>
-      <c r="EH2" s="13"/>
-      <c r="EI2" s="13"/>
-      <c r="EJ2" s="13">
+      <c r="EE2" s="11"/>
+      <c r="EF2" s="11"/>
+      <c r="EG2" s="11"/>
+      <c r="EH2" s="11"/>
+      <c r="EI2" s="11"/>
+      <c r="EJ2" s="11">
         <v>16.14</v>
       </c>
-      <c r="EK2" s="13"/>
-      <c r="EL2" s="13"/>
-      <c r="EM2" s="13"/>
-      <c r="EN2" s="13"/>
-      <c r="EO2" s="13"/>
-      <c r="EP2" s="13">
+      <c r="EK2" s="11"/>
+      <c r="EL2" s="11"/>
+      <c r="EM2" s="11"/>
+      <c r="EN2" s="11"/>
+      <c r="EO2" s="11"/>
+      <c r="EP2" s="11">
         <v>15.46</v>
       </c>
-      <c r="EQ2" s="13"/>
-      <c r="ER2" s="13"/>
-      <c r="ES2" s="13"/>
-      <c r="ET2" s="13"/>
-      <c r="EU2" s="13"/>
-      <c r="EV2" s="13">
+      <c r="EQ2" s="11"/>
+      <c r="ER2" s="11"/>
+      <c r="ES2" s="11"/>
+      <c r="ET2" s="11"/>
+      <c r="EU2" s="11"/>
+      <c r="EV2" s="11">
         <v>11.82</v>
       </c>
-      <c r="EW2" s="13"/>
-      <c r="EX2" s="13"/>
-      <c r="EY2" s="13"/>
-      <c r="EZ2" s="13">
+      <c r="EW2" s="11"/>
+      <c r="EX2" s="11"/>
+      <c r="EY2" s="11"/>
+      <c r="EZ2" s="11">
         <v>10.039999999999999</v>
       </c>
-      <c r="FA2" s="13"/>
-      <c r="FB2" s="13"/>
-      <c r="FC2" s="13"/>
-      <c r="FD2" s="13">
+      <c r="FA2" s="11"/>
+      <c r="FB2" s="11"/>
+      <c r="FC2" s="11"/>
+      <c r="FD2" s="11">
         <v>8.26</v>
       </c>
-      <c r="FE2" s="13"/>
-      <c r="FF2" s="13"/>
-      <c r="FG2" s="13"/>
-      <c r="FH2" s="13">
+      <c r="FE2" s="11"/>
+      <c r="FF2" s="11"/>
+      <c r="FG2" s="11"/>
+      <c r="FH2" s="11">
         <v>6.48</v>
       </c>
-      <c r="FI2" s="13"/>
-      <c r="FJ2" s="13"/>
-      <c r="FK2" s="13"/>
-      <c r="FL2" s="13">
+      <c r="FI2" s="11"/>
+      <c r="FJ2" s="11"/>
+      <c r="FK2" s="11"/>
+      <c r="FL2" s="11">
         <v>4.95</v>
       </c>
-      <c r="FM2" s="13"/>
-      <c r="FN2" s="13"/>
-      <c r="FO2" s="13"/>
+      <c r="FM2" s="11"/>
+      <c r="FN2" s="11"/>
+      <c r="FO2" s="11"/>
     </row>
     <row r="3" spans="1:171" x14ac:dyDescent="0.15">
-      <c r="A3" s="15"/>
+      <c r="A3" s="13"/>
       <c r="B3" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="W3" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="X3" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="Y3" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="Z3" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="AA3" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="AB3" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="AC3" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="AD3" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="AE3" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="AF3" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="AG3" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="AH3" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="AI3" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="AJ3" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="AK3" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="AL3" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="AM3" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="AN3" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="AO3" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="AP3" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="AQ3" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="AR3" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="AS3" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="Y3" s="3" t="s">
+      <c r="AT3" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="Z3" s="3" t="s">
+      <c r="AU3" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="AA3" s="3" t="s">
+      <c r="AV3" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="AB3" s="3" t="s">
+      <c r="AW3" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="AC3" s="3" t="s">
+      <c r="AX3" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="AD3" s="3" t="s">
+      <c r="AY3" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="AE3" s="3" t="s">
+      <c r="AZ3" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="AF3" s="3" t="s">
+      <c r="BA3" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="AG3" s="3" t="s">
+      <c r="BB3" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="AH3" s="3" t="s">
+      <c r="BC3" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="AI3" s="3" t="s">
+      <c r="BD3" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="AJ3" s="3" t="s">
+      <c r="BE3" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="AK3" s="3" t="s">
+      <c r="BF3" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="AL3" s="3" t="s">
+      <c r="BG3" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="AM3" s="3" t="s">
+      <c r="BH3" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="AN3" s="3" t="s">
+      <c r="BI3" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="AO3" s="3" t="s">
+      <c r="BJ3" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="AP3" s="3" t="s">
+      <c r="BK3" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="AQ3" s="3" t="s">
+      <c r="BL3" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="AR3" s="3" t="s">
+      <c r="BM3" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="AS3" s="3" t="s">
+      <c r="BN3" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="AT3" s="3" t="s">
+      <c r="BO3" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="AU3" s="3" t="s">
+      <c r="BP3" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="AV3" s="3" t="s">
+      <c r="BQ3" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="AW3" s="3" t="s">
+      <c r="BR3" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="AX3" s="3" t="s">
+      <c r="BS3" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="AY3" s="3" t="s">
+      <c r="BT3" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="AZ3" s="3" t="s">
+      <c r="BU3" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="BA3" s="3" t="s">
+      <c r="BV3" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="BB3" s="3" t="s">
+      <c r="BW3" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="BC3" s="3" t="s">
+      <c r="BX3" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="BD3" s="3" t="s">
+      <c r="BY3" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="BE3" s="3" t="s">
+      <c r="BZ3" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="BF3" s="3" t="s">
+      <c r="CA3" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="BG3" s="3" t="s">
+      <c r="CB3" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="BH3" s="3" t="s">
+      <c r="CC3" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="BI3" s="3" t="s">
+      <c r="CD3" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="BJ3" s="3" t="s">
+      <c r="CE3" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="BK3" s="3" t="s">
+      <c r="CF3" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="BL3" s="3" t="s">
+      <c r="CG3" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="BM3" s="3" t="s">
+      <c r="CH3" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="BN3" s="3" t="s">
+      <c r="CI3" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="BO3" s="3" t="s">
+      <c r="CJ3" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="BP3" s="3" t="s">
+      <c r="CK3" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="BQ3" s="3" t="s">
+      <c r="CL3" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="BR3" s="3" t="s">
+      <c r="CM3" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="BS3" s="3" t="s">
+      <c r="CN3" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="BT3" s="3" t="s">
+      <c r="CO3" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="BU3" s="3" t="s">
+      <c r="CP3" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="BV3" s="3" t="s">
+      <c r="CQ3" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="BW3" s="3" t="s">
+      <c r="CR3" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="BX3" s="3" t="s">
+      <c r="CS3" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="BY3" s="3" t="s">
+      <c r="CT3" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="BZ3" s="3" t="s">
+      <c r="CU3" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="CA3" s="3" t="s">
+      <c r="CV3" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="CB3" s="3" t="s">
+      <c r="CW3" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="CC3" s="3" t="s">
+      <c r="CX3" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="CD3" s="3" t="s">
+      <c r="CY3" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="CE3" s="3" t="s">
+      <c r="CZ3" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="CF3" s="3" t="s">
+      <c r="DA3" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="CG3" s="3" t="s">
+      <c r="DB3" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="CH3" s="3" t="s">
+      <c r="DC3" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="CI3" s="3" t="s">
+      <c r="DD3" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="CJ3" s="3" t="s">
+      <c r="DE3" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="CK3" s="3" t="s">
+      <c r="DF3" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="CL3" s="3" t="s">
+      <c r="DG3" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="CM3" s="3" t="s">
+      <c r="DH3" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="CN3" s="3" t="s">
+      <c r="DI3" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="CO3" s="3" t="s">
+      <c r="DJ3" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="CP3" s="3" t="s">
+      <c r="DK3" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="CQ3" s="3" t="s">
+      <c r="DL3" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="CR3" s="3" t="s">
+      <c r="DM3" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="CS3" s="3" t="s">
+      <c r="DN3" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="CT3" s="3" t="s">
+      <c r="DO3" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="CU3" s="3" t="s">
+      <c r="DP3" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="CV3" s="3" t="s">
+      <c r="DQ3" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="CW3" s="3" t="s">
+      <c r="DR3" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="CX3" s="3" t="s">
+      <c r="DS3" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="CY3" s="3" t="s">
+      <c r="DT3" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="CZ3" s="3" t="s">
+      <c r="DU3" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="DA3" s="3" t="s">
+      <c r="DV3" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="DB3" s="3" t="s">
+      <c r="DW3" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="DC3" s="3" t="s">
+      <c r="DX3" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="DD3" s="3" t="s">
+      <c r="DY3" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="DE3" s="3" t="s">
+      <c r="DZ3" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="DF3" s="3" t="s">
+      <c r="EA3" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="DG3" s="3" t="s">
+      <c r="EB3" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="DH3" s="3" t="s">
+      <c r="EC3" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="DI3" s="3" t="s">
+      <c r="ED3" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="DJ3" s="3" t="s">
+      <c r="EE3" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="DK3" s="3" t="s">
+      <c r="EF3" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="DL3" s="3" t="s">
+      <c r="EG3" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="DM3" s="3" t="s">
+      <c r="EH3" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="DN3" s="3" t="s">
+      <c r="EI3" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="DO3" s="3" t="s">
+      <c r="EJ3" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="DP3" s="3" t="s">
+      <c r="EK3" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="DQ3" s="3" t="s">
+      <c r="EL3" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="DR3" s="3" t="s">
+      <c r="EM3" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="DS3" s="3" t="s">
+      <c r="EN3" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="DT3" s="3" t="s">
+      <c r="EO3" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="DU3" s="3" t="s">
+      <c r="EP3" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="DV3" s="3" t="s">
+      <c r="EQ3" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="DW3" s="3" t="s">
+      <c r="ER3" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="DX3" s="3" t="s">
+      <c r="ES3" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="DY3" s="3" t="s">
+      <c r="ET3" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="DZ3" s="3" t="s">
+      <c r="EU3" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="EA3" s="3" t="s">
+      <c r="EV3" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="EB3" s="3" t="s">
+      <c r="EW3" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="EC3" s="3" t="s">
+      <c r="EX3" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="ED3" s="3" t="s">
+      <c r="EY3" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="EE3" s="3" t="s">
+      <c r="EZ3" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="EF3" s="3" t="s">
+      <c r="FA3" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="EG3" s="3" t="s">
+      <c r="FB3" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="EH3" s="3" t="s">
+      <c r="FC3" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="EI3" s="3" t="s">
+      <c r="FD3" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="EJ3" s="3" t="s">
+      <c r="FE3" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="EK3" s="3" t="s">
+      <c r="FF3" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="EL3" s="3" t="s">
+      <c r="FG3" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="EM3" s="3" t="s">
+      <c r="FH3" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="EN3" s="3" t="s">
+      <c r="FI3" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="EO3" s="3" t="s">
+      <c r="FJ3" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="EP3" s="3" t="s">
+      <c r="FK3" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="EQ3" s="3" t="s">
+      <c r="FL3" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="ER3" s="3" t="s">
+      <c r="FM3" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="ES3" s="3" t="s">
+      <c r="FN3" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="ET3" s="3" t="s">
+      <c r="FO3" s="3" t="s">
         <v>344</v>
-      </c>
-      <c r="EU3" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="EV3" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="EW3" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="EX3" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="EY3" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="EZ3" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="FA3" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="FB3" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="FC3" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="FD3" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="FE3" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="FF3" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="FG3" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="FH3" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="FI3" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="FJ3" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="FK3" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="FL3" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="FM3" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="FN3" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="FO3" s="3" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="4" spans="1:171" x14ac:dyDescent="0.15">
-      <c r="A4" s="15"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CM4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CP4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CR4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CS4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CT4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CW4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CX4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CY4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CZ4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DA4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DB4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DC4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DD4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DG4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DH4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DI4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DJ4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DK4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DL4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DM4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DN4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DO4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DP4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DQ4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DR4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DS4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DT4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DU4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DV4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DW4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DY4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DZ4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EA4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EB4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EC4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ED4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EE4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EF4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EG4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EH4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EI4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EL4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EM4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EN4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EO4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ER4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ES4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ET4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EU4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EV4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EW4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EZ4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FA4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FB4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FC4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FD4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FE4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FF4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FG4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FH4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FI4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FJ4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FK4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FL4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FM4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FN4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FO4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:171" ht="0.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="W5" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="X5" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="Y5" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="Z5" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="AA5" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="AB5" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="AC5" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="AD5" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="AE5" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="AF5" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="AG5" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="AH5" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="AI5" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="AJ5" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="AK5" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="AL5" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="AM5" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="AN5" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="AO5" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="U5" s="1" t="s">
+      <c r="AP5" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="AQ5" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="AR5" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="X5" s="1" t="s">
+      <c r="AS5" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="Y5" s="1" t="s">
+      <c r="AT5" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="Z5" s="1" t="s">
+      <c r="AU5" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="AA5" s="1" t="s">
+      <c r="AV5" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="AB5" s="1" t="s">
+      <c r="AW5" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="AC5" s="1" t="s">
+      <c r="AX5" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="AD5" s="1" t="s">
+      <c r="AY5" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="AE5" s="1" t="s">
+      <c r="AZ5" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="AF5" s="1" t="s">
+      <c r="BA5" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="AG5" s="1" t="s">
+      <c r="BB5" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="AH5" s="1" t="s">
+      <c r="BC5" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="AI5" s="1" t="s">
+      <c r="BD5" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="AJ5" s="1" t="s">
+      <c r="BE5" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="AK5" s="1" t="s">
+      <c r="BF5" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="AL5" s="1" t="s">
+      <c r="BG5" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="AM5" s="1" t="s">
+      <c r="BH5" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="AN5" s="1" t="s">
+      <c r="BI5" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="AO5" s="1" t="s">
+      <c r="BJ5" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="AP5" s="1" t="s">
+      <c r="BK5" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="AQ5" s="1" t="s">
+      <c r="BL5" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="AR5" s="1" t="s">
+      <c r="BM5" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="AS5" s="1" t="s">
+      <c r="BN5" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="AT5" s="1" t="s">
+      <c r="BO5" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="AU5" s="1" t="s">
+      <c r="BP5" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="AV5" s="1" t="s">
+      <c r="BQ5" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="AW5" s="1" t="s">
+      <c r="BR5" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="AX5" s="1" t="s">
+      <c r="BS5" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="AY5" s="1" t="s">
+      <c r="BT5" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="AZ5" s="1" t="s">
+      <c r="BU5" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="BA5" s="1" t="s">
+      <c r="BV5" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="BB5" s="1" t="s">
+      <c r="BW5" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="BC5" s="1" t="s">
+      <c r="BX5" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="BD5" s="1" t="s">
+      <c r="BY5" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="BE5" s="1" t="s">
+      <c r="BZ5" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="BF5" s="1" t="s">
+      <c r="CA5" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="BG5" s="1" t="s">
+      <c r="CB5" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="BH5" s="1" t="s">
+      <c r="CC5" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="BI5" s="1" t="s">
+      <c r="CD5" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="BJ5" s="1" t="s">
+      <c r="CE5" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="BK5" s="1" t="s">
+      <c r="CF5" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="BL5" s="1" t="s">
+      <c r="CG5" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="BM5" s="1" t="s">
+      <c r="CH5" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="BN5" s="1" t="s">
+      <c r="CI5" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="BO5" s="1" t="s">
+      <c r="CJ5" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="BP5" s="1" t="s">
+      <c r="CK5" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="BQ5" s="1" t="s">
+      <c r="CL5" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="BR5" s="1" t="s">
+      <c r="CM5" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="BS5" s="1" t="s">
+      <c r="CN5" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="BT5" s="1" t="s">
+      <c r="CO5" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="BU5" s="1" t="s">
+      <c r="CP5" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="BV5" s="1" t="s">
+      <c r="CQ5" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="BW5" s="1" t="s">
+      <c r="CR5" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="BX5" s="1" t="s">
+      <c r="CS5" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="BY5" s="1" t="s">
+      <c r="CT5" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="BZ5" s="1" t="s">
+      <c r="CU5" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="CA5" s="1" t="s">
+      <c r="CV5" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="CB5" s="1" t="s">
+      <c r="CW5" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="CC5" s="1" t="s">
+      <c r="CX5" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="CD5" s="1" t="s">
+      <c r="CY5" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="CE5" s="1" t="s">
+      <c r="CZ5" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="CF5" s="1" t="s">
+      <c r="DA5" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="CG5" s="1" t="s">
+      <c r="DB5" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="CH5" s="1" t="s">
+      <c r="DC5" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="CI5" s="1" t="s">
+      <c r="DD5" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="CJ5" s="1" t="s">
+      <c r="DE5" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="CK5" s="1" t="s">
+      <c r="DF5" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="CL5" s="1" t="s">
+      <c r="DG5" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="CM5" s="1" t="s">
+      <c r="DH5" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="CN5" s="1" t="s">
+      <c r="DI5" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="CO5" s="1" t="s">
+      <c r="DJ5" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="CP5" s="1" t="s">
+      <c r="DK5" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="CQ5" s="1" t="s">
+      <c r="DL5" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="CR5" s="1" t="s">
+      <c r="DM5" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="CS5" s="1" t="s">
+      <c r="DN5" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="CT5" s="1" t="s">
+      <c r="DO5" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="CU5" s="1" t="s">
+      <c r="DP5" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="CV5" s="1" t="s">
+      <c r="DQ5" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="CW5" s="1" t="s">
+      <c r="DR5" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="CX5" s="1" t="s">
+      <c r="DS5" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="CY5" s="1" t="s">
+      <c r="DT5" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="CZ5" s="1" t="s">
+      <c r="DU5" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="DA5" s="1" t="s">
+      <c r="DV5" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="DB5" s="1" t="s">
+      <c r="DW5" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="DC5" s="1" t="s">
+      <c r="DX5" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="DD5" s="1" t="s">
+      <c r="DY5" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="DE5" s="1" t="s">
+      <c r="DZ5" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="DF5" s="1" t="s">
+      <c r="EA5" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="DG5" s="1" t="s">
+      <c r="EB5" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="DH5" s="1" t="s">
+      <c r="EC5" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="DI5" s="1" t="s">
+      <c r="ED5" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="DJ5" s="1" t="s">
+      <c r="EE5" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="DK5" s="1" t="s">
+      <c r="EF5" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="DL5" s="1" t="s">
+      <c r="EG5" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="DM5" s="1" t="s">
+      <c r="EH5" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="DN5" s="1" t="s">
+      <c r="EI5" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="DO5" s="1" t="s">
+      <c r="EJ5" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="DP5" s="1" t="s">
+      <c r="EK5" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="DQ5" s="1" t="s">
+      <c r="EL5" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="DR5" s="1" t="s">
+      <c r="EM5" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="DS5" s="1" t="s">
+      <c r="EN5" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="DT5" s="1" t="s">
+      <c r="EO5" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="DU5" s="1" t="s">
+      <c r="EP5" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="DV5" s="1" t="s">
+      <c r="EQ5" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="DW5" s="1" t="s">
+      <c r="ER5" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="DX5" s="1" t="s">
+      <c r="ES5" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="DY5" s="1" t="s">
+      <c r="ET5" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="DZ5" s="1" t="s">
+      <c r="EU5" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="EA5" s="1" t="s">
+      <c r="EV5" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="EB5" s="1" t="s">
+      <c r="EW5" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="EC5" s="1" t="s">
+      <c r="EX5" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="ED5" s="1" t="s">
+      <c r="EY5" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="EE5" s="1" t="s">
+      <c r="EZ5" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="EF5" s="1" t="s">
+      <c r="FA5" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="EG5" s="1" t="s">
+      <c r="FB5" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="EH5" s="1" t="s">
+      <c r="FC5" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="EI5" s="1" t="s">
+      <c r="FD5" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="EJ5" s="1" t="s">
+      <c r="FE5" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="EK5" s="1" t="s">
+      <c r="FF5" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="EL5" s="1" t="s">
+      <c r="FG5" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="EM5" s="1" t="s">
+      <c r="FH5" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="EN5" s="1" t="s">
+      <c r="FI5" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="EO5" s="1" t="s">
+      <c r="FJ5" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="EP5" s="1" t="s">
+      <c r="FK5" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="EQ5" s="1" t="s">
+      <c r="FL5" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="ER5" s="1" t="s">
+      <c r="FM5" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="ES5" s="1" t="s">
+      <c r="FN5" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="ET5" s="1" t="s">
+      <c r="FO5" s="1" t="s">
         <v>344</v>
-      </c>
-      <c r="EU5" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="EV5" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="EW5" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="EX5" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="EY5" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="EZ5" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="FA5" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="FB5" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="FC5" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="FD5" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="FE5" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="FF5" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="FG5" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="FH5" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="FI5" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="FJ5" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="FK5" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="FL5" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="FM5" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="FN5" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="FO5" s="1" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="6" spans="1:171" x14ac:dyDescent="0.15">
@@ -24807,7 +24765,7 @@
     </row>
     <row r="37" spans="1:171" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B37" s="9" t="str">
         <f>IFERROR(AVERAGE(B6:B36),"")</f>
@@ -25491,7 +25449,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="33">
     <mergeCell ref="FL2:FO2"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="EP2:EU2"/>
@@ -25519,11 +25477,12 @@
     <mergeCell ref="AL2:AQ2"/>
     <mergeCell ref="AR2:AW2"/>
     <mergeCell ref="AX2:BC2"/>
-    <mergeCell ref="A1:V1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="H2:M2"/>
     <mergeCell ref="N2:S2"/>
     <mergeCell ref="T2:Y2"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="Q1:S1"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25543,514 +25502,514 @@
   <sheetData>
     <row r="1" spans="1:170" ht="54" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BY1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="CA1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="CB1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="CC1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="CD1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="CE1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="CF1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="CG1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="CH1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="CI1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="CJ1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="CK1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="CL1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="CM1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="CN1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="CO1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="CP1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="CQ1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="CR1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="CS1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="CT1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="CU1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CV1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CW1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="CC1" s="1" t="s">
+      <c r="CX1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="CD1" s="1" t="s">
+      <c r="CY1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="CE1" s="1" t="s">
+      <c r="CZ1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="CF1" s="1" t="s">
+      <c r="DA1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="CG1" s="1" t="s">
+      <c r="DB1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="CH1" s="1" t="s">
+      <c r="DC1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="CI1" s="1" t="s">
+      <c r="DD1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="CJ1" s="1" t="s">
+      <c r="DE1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="CK1" s="1" t="s">
+      <c r="DF1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="CL1" s="1" t="s">
+      <c r="DG1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="CM1" s="1" t="s">
+      <c r="DH1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="CN1" s="1" t="s">
+      <c r="DI1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="CO1" s="1" t="s">
+      <c r="DJ1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="CP1" s="1" t="s">
+      <c r="DK1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="CQ1" s="1" t="s">
+      <c r="DL1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="CR1" s="1" t="s">
+      <c r="DM1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="CS1" s="1" t="s">
+      <c r="DN1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="CT1" s="1" t="s">
+      <c r="DO1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="CU1" s="1" t="s">
+      <c r="DP1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="CV1" s="1" t="s">
+      <c r="DQ1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="CW1" s="1" t="s">
+      <c r="DR1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="CX1" s="1" t="s">
+      <c r="DS1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="CY1" s="1" t="s">
+      <c r="DT1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="CZ1" s="1" t="s">
+      <c r="DU1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="DA1" s="1" t="s">
+      <c r="DV1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="DB1" s="1" t="s">
+      <c r="DW1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="DC1" s="1" t="s">
+      <c r="DX1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="DD1" s="1" t="s">
+      <c r="DY1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="DE1" s="1" t="s">
+      <c r="DZ1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="DF1" s="1" t="s">
+      <c r="EA1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="DG1" s="1" t="s">
+      <c r="EB1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="DH1" s="1" t="s">
+      <c r="EC1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="DI1" s="1" t="s">
+      <c r="ED1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="DJ1" s="1" t="s">
+      <c r="EE1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="DK1" s="1" t="s">
+      <c r="EF1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="DL1" s="1" t="s">
+      <c r="EG1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="DM1" s="1" t="s">
+      <c r="EH1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="DN1" s="1" t="s">
+      <c r="EI1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="DO1" s="1" t="s">
+      <c r="EJ1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="DP1" s="1" t="s">
+      <c r="EK1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="DQ1" s="1" t="s">
+      <c r="EL1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="DR1" s="1" t="s">
+      <c r="EM1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="DS1" s="1" t="s">
+      <c r="EN1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="DT1" s="1" t="s">
+      <c r="EO1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="DU1" s="1" t="s">
+      <c r="EP1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="DV1" s="1" t="s">
+      <c r="EQ1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="DW1" s="1" t="s">
+      <c r="ER1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="DX1" s="1" t="s">
+      <c r="ES1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="DY1" s="1" t="s">
+      <c r="ET1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="DZ1" s="1" t="s">
+      <c r="EU1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="EA1" s="1" t="s">
+      <c r="EV1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="EB1" s="1" t="s">
+      <c r="EW1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="EC1" s="1" t="s">
+      <c r="EX1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="ED1" s="1" t="s">
+      <c r="EY1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="EE1" s="1" t="s">
+      <c r="EZ1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="EF1" s="1" t="s">
+      <c r="FA1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="EG1" s="1" t="s">
+      <c r="FB1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="EH1" s="1" t="s">
+      <c r="FC1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="EI1" s="1" t="s">
+      <c r="FD1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="EJ1" s="1" t="s">
+      <c r="FE1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="EK1" s="1" t="s">
+      <c r="FF1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="EL1" s="1" t="s">
+      <c r="FG1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="EM1" s="1" t="s">
+      <c r="FH1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="EN1" s="1" t="s">
+      <c r="FI1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="EO1" s="1" t="s">
+      <c r="FJ1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="EP1" s="1" t="s">
+      <c r="FK1" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="EQ1" s="1" t="s">
+      <c r="FL1" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="ER1" s="1" t="s">
+      <c r="FM1" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="ES1" s="1" t="s">
+      <c r="FN1" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="ET1" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="EU1" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="EV1" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="EW1" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="EX1" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="EY1" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="EZ1" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="FA1" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="FB1" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="FC1" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="FD1" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="FE1" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="FF1" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="FG1" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="FH1" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="FI1" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="FJ1" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="FK1" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="FL1" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="FM1" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="FN1" s="1" t="s">
-        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -26072,7 +26031,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1">
         <v>8</v>
@@ -26086,101 +26045,14 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1">
-        <v>43437.485506539299</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/excel/finished/8高炉/高炉冷却壁温度月报表.xlsx
+++ b/excel/finished/8高炉/高炉冷却壁温度月报表.xlsx
@@ -1305,8 +1305,11 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1317,11 +1320,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1638,7 +1638,8 @@
   <dimension ref="A1:FO37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1647,7 +1648,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:171" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="15" t="s">
         <v>174</v>
       </c>
       <c r="B1" s="16"/>
@@ -1671,9 +1672,9 @@
       </c>
       <c r="R1" s="16"/>
       <c r="S1" s="16"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="15"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="11"/>
       <c r="W1" s="6"/>
       <c r="X1" s="6"/>
       <c r="Y1" s="6"/>
@@ -1753,242 +1754,242 @@
       <c r="CU1" s="6"/>
     </row>
     <row r="2" spans="1:171" x14ac:dyDescent="0.15">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="12">
         <v>37.85</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12">
         <v>37.195</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11">
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12">
         <v>36.344999999999999</v>
       </c>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11">
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12">
         <v>35.234999999999999</v>
       </c>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11">
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12">
         <v>34.384999999999998</v>
       </c>
-      <c r="AA2" s="11"/>
-      <c r="AB2" s="11"/>
-      <c r="AC2" s="11"/>
-      <c r="AD2" s="11"/>
-      <c r="AE2" s="11"/>
-      <c r="AF2" s="11">
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="12"/>
+      <c r="AF2" s="12">
         <v>33.274999999999999</v>
       </c>
-      <c r="AG2" s="11"/>
-      <c r="AH2" s="11"/>
-      <c r="AI2" s="11"/>
-      <c r="AJ2" s="11"/>
-      <c r="AK2" s="11"/>
-      <c r="AL2" s="11">
+      <c r="AG2" s="12"/>
+      <c r="AH2" s="12"/>
+      <c r="AI2" s="12"/>
+      <c r="AJ2" s="12"/>
+      <c r="AK2" s="12"/>
+      <c r="AL2" s="12">
         <v>32.424999999999997</v>
       </c>
-      <c r="AM2" s="11"/>
-      <c r="AN2" s="11"/>
-      <c r="AO2" s="11"/>
-      <c r="AP2" s="11"/>
-      <c r="AQ2" s="11"/>
-      <c r="AR2" s="11">
+      <c r="AM2" s="12"/>
+      <c r="AN2" s="12"/>
+      <c r="AO2" s="12"/>
+      <c r="AP2" s="12"/>
+      <c r="AQ2" s="12"/>
+      <c r="AR2" s="12">
         <v>31.315000000000001</v>
       </c>
-      <c r="AS2" s="11"/>
-      <c r="AT2" s="11"/>
-      <c r="AU2" s="11"/>
-      <c r="AV2" s="11"/>
-      <c r="AW2" s="11"/>
-      <c r="AX2" s="11">
+      <c r="AS2" s="12"/>
+      <c r="AT2" s="12"/>
+      <c r="AU2" s="12"/>
+      <c r="AV2" s="12"/>
+      <c r="AW2" s="12"/>
+      <c r="AX2" s="12">
         <v>30.465</v>
       </c>
-      <c r="AY2" s="11"/>
-      <c r="AZ2" s="11"/>
-      <c r="BA2" s="11"/>
-      <c r="BB2" s="11"/>
-      <c r="BC2" s="11"/>
-      <c r="BD2" s="11">
+      <c r="AY2" s="12"/>
+      <c r="AZ2" s="12"/>
+      <c r="BA2" s="12"/>
+      <c r="BB2" s="12"/>
+      <c r="BC2" s="12"/>
+      <c r="BD2" s="12">
         <v>29.355</v>
       </c>
-      <c r="BE2" s="11"/>
-      <c r="BF2" s="11"/>
-      <c r="BG2" s="11"/>
-      <c r="BH2" s="11"/>
-      <c r="BI2" s="11"/>
-      <c r="BJ2" s="11">
+      <c r="BE2" s="12"/>
+      <c r="BF2" s="12"/>
+      <c r="BG2" s="12"/>
+      <c r="BH2" s="12"/>
+      <c r="BI2" s="12"/>
+      <c r="BJ2" s="12">
         <v>28.504999999999999</v>
       </c>
-      <c r="BK2" s="11"/>
-      <c r="BL2" s="11"/>
-      <c r="BM2" s="11"/>
-      <c r="BN2" s="11"/>
-      <c r="BO2" s="11"/>
-      <c r="BP2" s="11">
+      <c r="BK2" s="12"/>
+      <c r="BL2" s="12"/>
+      <c r="BM2" s="12"/>
+      <c r="BN2" s="12"/>
+      <c r="BO2" s="12"/>
+      <c r="BP2" s="12">
         <v>27.395</v>
       </c>
-      <c r="BQ2" s="11"/>
-      <c r="BR2" s="11"/>
-      <c r="BS2" s="11"/>
-      <c r="BT2" s="11"/>
-      <c r="BU2" s="11"/>
-      <c r="BV2" s="11">
+      <c r="BQ2" s="12"/>
+      <c r="BR2" s="12"/>
+      <c r="BS2" s="12"/>
+      <c r="BT2" s="12"/>
+      <c r="BU2" s="12"/>
+      <c r="BV2" s="12">
         <v>26.545000000000002</v>
       </c>
-      <c r="BW2" s="11"/>
-      <c r="BX2" s="11"/>
-      <c r="BY2" s="11"/>
-      <c r="BZ2" s="11"/>
-      <c r="CA2" s="11"/>
-      <c r="CB2" s="11">
+      <c r="BW2" s="12"/>
+      <c r="BX2" s="12"/>
+      <c r="BY2" s="12"/>
+      <c r="BZ2" s="12"/>
+      <c r="CA2" s="12"/>
+      <c r="CB2" s="12">
         <v>25.48</v>
       </c>
-      <c r="CC2" s="11"/>
-      <c r="CD2" s="11"/>
-      <c r="CE2" s="11"/>
-      <c r="CF2" s="11"/>
-      <c r="CG2" s="11"/>
-      <c r="CH2" s="11">
+      <c r="CC2" s="12"/>
+      <c r="CD2" s="12"/>
+      <c r="CE2" s="12"/>
+      <c r="CF2" s="12"/>
+      <c r="CG2" s="12"/>
+      <c r="CH2" s="12">
         <v>24.66</v>
       </c>
-      <c r="CI2" s="11"/>
-      <c r="CJ2" s="11"/>
-      <c r="CK2" s="11"/>
-      <c r="CL2" s="11"/>
-      <c r="CM2" s="11"/>
-      <c r="CN2" s="11">
+      <c r="CI2" s="12"/>
+      <c r="CJ2" s="12"/>
+      <c r="CK2" s="12"/>
+      <c r="CL2" s="12"/>
+      <c r="CM2" s="12"/>
+      <c r="CN2" s="12">
         <v>23.49</v>
       </c>
-      <c r="CO2" s="11"/>
-      <c r="CP2" s="11"/>
-      <c r="CQ2" s="11"/>
-      <c r="CR2" s="11"/>
-      <c r="CS2" s="11"/>
-      <c r="CT2" s="11">
+      <c r="CO2" s="12"/>
+      <c r="CP2" s="12"/>
+      <c r="CQ2" s="12"/>
+      <c r="CR2" s="12"/>
+      <c r="CS2" s="12"/>
+      <c r="CT2" s="12">
         <v>22.67</v>
       </c>
-      <c r="CU2" s="11"/>
-      <c r="CV2" s="11"/>
-      <c r="CW2" s="11"/>
-      <c r="CX2" s="11"/>
-      <c r="CY2" s="11"/>
-      <c r="CZ2" s="11">
+      <c r="CU2" s="12"/>
+      <c r="CV2" s="12"/>
+      <c r="CW2" s="12"/>
+      <c r="CX2" s="12"/>
+      <c r="CY2" s="12"/>
+      <c r="CZ2" s="12">
         <v>21.5</v>
       </c>
-      <c r="DA2" s="11"/>
-      <c r="DB2" s="11"/>
-      <c r="DC2" s="11"/>
-      <c r="DD2" s="11"/>
-      <c r="DE2" s="11"/>
-      <c r="DF2" s="11">
+      <c r="DA2" s="12"/>
+      <c r="DB2" s="12"/>
+      <c r="DC2" s="12"/>
+      <c r="DD2" s="12"/>
+      <c r="DE2" s="12"/>
+      <c r="DF2" s="12">
         <v>20.68</v>
       </c>
-      <c r="DG2" s="11"/>
-      <c r="DH2" s="11"/>
-      <c r="DI2" s="11"/>
-      <c r="DJ2" s="11"/>
-      <c r="DK2" s="11"/>
-      <c r="DL2" s="11">
+      <c r="DG2" s="12"/>
+      <c r="DH2" s="12"/>
+      <c r="DI2" s="12"/>
+      <c r="DJ2" s="12"/>
+      <c r="DK2" s="12"/>
+      <c r="DL2" s="12">
         <v>19.625</v>
       </c>
-      <c r="DM2" s="11"/>
-      <c r="DN2" s="11"/>
-      <c r="DO2" s="11"/>
-      <c r="DP2" s="11"/>
-      <c r="DQ2" s="11"/>
-      <c r="DR2" s="11">
+      <c r="DM2" s="12"/>
+      <c r="DN2" s="12"/>
+      <c r="DO2" s="12"/>
+      <c r="DP2" s="12"/>
+      <c r="DQ2" s="12"/>
+      <c r="DR2" s="12">
         <v>18.754999999999999</v>
       </c>
-      <c r="DS2" s="11"/>
-      <c r="DT2" s="11"/>
-      <c r="DU2" s="11"/>
-      <c r="DV2" s="11"/>
-      <c r="DW2" s="11"/>
-      <c r="DX2" s="11">
+      <c r="DS2" s="12"/>
+      <c r="DT2" s="12"/>
+      <c r="DU2" s="12"/>
+      <c r="DV2" s="12"/>
+      <c r="DW2" s="12"/>
+      <c r="DX2" s="12">
         <v>17.7</v>
       </c>
-      <c r="DY2" s="11"/>
-      <c r="DZ2" s="11"/>
-      <c r="EA2" s="11"/>
-      <c r="EB2" s="11"/>
-      <c r="EC2" s="11"/>
-      <c r="ED2" s="11">
+      <c r="DY2" s="12"/>
+      <c r="DZ2" s="12"/>
+      <c r="EA2" s="12"/>
+      <c r="EB2" s="12"/>
+      <c r="EC2" s="12"/>
+      <c r="ED2" s="12">
         <v>17.02</v>
       </c>
-      <c r="EE2" s="11"/>
-      <c r="EF2" s="11"/>
-      <c r="EG2" s="11"/>
-      <c r="EH2" s="11"/>
-      <c r="EI2" s="11"/>
-      <c r="EJ2" s="11">
+      <c r="EE2" s="12"/>
+      <c r="EF2" s="12"/>
+      <c r="EG2" s="12"/>
+      <c r="EH2" s="12"/>
+      <c r="EI2" s="12"/>
+      <c r="EJ2" s="12">
         <v>16.14</v>
       </c>
-      <c r="EK2" s="11"/>
-      <c r="EL2" s="11"/>
-      <c r="EM2" s="11"/>
-      <c r="EN2" s="11"/>
-      <c r="EO2" s="11"/>
-      <c r="EP2" s="11">
+      <c r="EK2" s="12"/>
+      <c r="EL2" s="12"/>
+      <c r="EM2" s="12"/>
+      <c r="EN2" s="12"/>
+      <c r="EO2" s="12"/>
+      <c r="EP2" s="12">
         <v>15.46</v>
       </c>
-      <c r="EQ2" s="11"/>
-      <c r="ER2" s="11"/>
-      <c r="ES2" s="11"/>
-      <c r="ET2" s="11"/>
-      <c r="EU2" s="11"/>
-      <c r="EV2" s="11">
+      <c r="EQ2" s="12"/>
+      <c r="ER2" s="12"/>
+      <c r="ES2" s="12"/>
+      <c r="ET2" s="12"/>
+      <c r="EU2" s="12"/>
+      <c r="EV2" s="12">
         <v>11.82</v>
       </c>
-      <c r="EW2" s="11"/>
-      <c r="EX2" s="11"/>
-      <c r="EY2" s="11"/>
-      <c r="EZ2" s="11">
+      <c r="EW2" s="12"/>
+      <c r="EX2" s="12"/>
+      <c r="EY2" s="12"/>
+      <c r="EZ2" s="12">
         <v>10.039999999999999</v>
       </c>
-      <c r="FA2" s="11"/>
-      <c r="FB2" s="11"/>
-      <c r="FC2" s="11"/>
-      <c r="FD2" s="11">
+      <c r="FA2" s="12"/>
+      <c r="FB2" s="12"/>
+      <c r="FC2" s="12"/>
+      <c r="FD2" s="12">
         <v>8.26</v>
       </c>
-      <c r="FE2" s="11"/>
-      <c r="FF2" s="11"/>
-      <c r="FG2" s="11"/>
-      <c r="FH2" s="11">
+      <c r="FE2" s="12"/>
+      <c r="FF2" s="12"/>
+      <c r="FG2" s="12"/>
+      <c r="FH2" s="12">
         <v>6.48</v>
       </c>
-      <c r="FI2" s="11"/>
-      <c r="FJ2" s="11"/>
-      <c r="FK2" s="11"/>
-      <c r="FL2" s="11">
+      <c r="FI2" s="12"/>
+      <c r="FJ2" s="12"/>
+      <c r="FK2" s="12"/>
+      <c r="FL2" s="12">
         <v>4.95</v>
       </c>
-      <c r="FM2" s="11"/>
-      <c r="FN2" s="11"/>
-      <c r="FO2" s="11"/>
+      <c r="FM2" s="12"/>
+      <c r="FN2" s="12"/>
+      <c r="FO2" s="12"/>
     </row>
     <row r="3" spans="1:171" x14ac:dyDescent="0.15">
-      <c r="A3" s="13"/>
+      <c r="A3" s="14"/>
       <c r="B3" s="3" t="s">
         <v>175</v>
       </c>
@@ -2501,7 +2502,7 @@
       </c>
     </row>
     <row r="4" spans="1:171" x14ac:dyDescent="0.15">
-      <c r="A4" s="13"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
@@ -25450,6 +25451,23 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="N2:S2"/>
+    <mergeCell ref="T2:Y2"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="Z2:AE2"/>
+    <mergeCell ref="AF2:AK2"/>
+    <mergeCell ref="AL2:AQ2"/>
+    <mergeCell ref="AR2:AW2"/>
+    <mergeCell ref="AX2:BC2"/>
+    <mergeCell ref="DF2:DK2"/>
+    <mergeCell ref="BD2:BI2"/>
+    <mergeCell ref="BJ2:BO2"/>
+    <mergeCell ref="BP2:BU2"/>
+    <mergeCell ref="BV2:CA2"/>
+    <mergeCell ref="CB2:CG2"/>
     <mergeCell ref="FL2:FO2"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="EP2:EU2"/>
@@ -25466,23 +25484,6 @@
     <mergeCell ref="CN2:CS2"/>
     <mergeCell ref="CT2:CY2"/>
     <mergeCell ref="CZ2:DE2"/>
-    <mergeCell ref="DF2:DK2"/>
-    <mergeCell ref="BD2:BI2"/>
-    <mergeCell ref="BJ2:BO2"/>
-    <mergeCell ref="BP2:BU2"/>
-    <mergeCell ref="BV2:CA2"/>
-    <mergeCell ref="CB2:CG2"/>
-    <mergeCell ref="Z2:AE2"/>
-    <mergeCell ref="AF2:AK2"/>
-    <mergeCell ref="AL2:AQ2"/>
-    <mergeCell ref="AR2:AW2"/>
-    <mergeCell ref="AX2:BC2"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="N2:S2"/>
-    <mergeCell ref="T2:Y2"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="Q1:S1"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
